--- a/public/prepared_data/rawg_games_by_year_stable.xlsx
+++ b/public/prepared_data/rawg_games_by_year_stable.xlsx
@@ -760,12 +760,12 @@
     <t>Shin Megami Tensei V: Vengeance</t>
   </si>
   <si>
+    <t>Atomic Heart: Annihilation Instinct</t>
+  </si>
+  <si>
     <t>Metaphor: ReFantazio</t>
   </si>
   <si>
-    <t>Atomic Heart: Annihilation Instinct</t>
-  </si>
-  <si>
     <t>Dragon Age: Dreadwolf</t>
   </si>
   <si>
@@ -775,28 +775,28 @@
     <t>Graven</t>
   </si>
   <si>
+    <t>Monster Hunter Wilds</t>
+  </si>
+  <si>
     <t>Elden Ring Nightreign</t>
   </si>
   <si>
-    <t>Monster Hunter Wilds</t>
-  </si>
-  <si>
     <t>Peglin</t>
   </si>
   <si>
+    <t>The Wolf Among Us 2</t>
+  </si>
+  <si>
     <t>Captain Blood</t>
   </si>
   <si>
-    <t>The Wolf Among Us 2</t>
-  </si>
-  <si>
     <t>The First Berserker: Khazan</t>
   </si>
   <si>
     <t>MindsEye</t>
   </si>
   <si>
-    <t>Replaced</t>
+    <t>AI Limit</t>
   </si>
   <si>
     <t>Fantasian</t>
@@ -5339,13 +5339,13 @@
         <v>248</v>
       </c>
       <c r="C246">
-        <v>4.38</v>
+        <v>3.58</v>
       </c>
       <c r="D246">
         <v>53</v>
       </c>
       <c r="E246">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5356,13 +5356,13 @@
         <v>249</v>
       </c>
       <c r="C247">
-        <v>3.58</v>
+        <v>4.38</v>
       </c>
       <c r="D247">
         <v>53</v>
       </c>
       <c r="E247">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5424,7 +5424,7 @@
         <v>253</v>
       </c>
       <c r="C251">
-        <v>3.89</v>
+        <v>4.22</v>
       </c>
       <c r="D251">
         <v>23</v>
@@ -5441,7 +5441,7 @@
         <v>254</v>
       </c>
       <c r="C252">
-        <v>4.22</v>
+        <v>3.89</v>
       </c>
       <c r="D252">
         <v>23</v>
@@ -5475,7 +5475,7 @@
         <v>256</v>
       </c>
       <c r="C254">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="D254">
         <v>16</v>
@@ -5492,7 +5492,7 @@
         <v>257</v>
       </c>
       <c r="C255">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="D255">
         <v>16</v>
@@ -5543,7 +5543,7 @@
         <v>260</v>
       </c>
       <c r="C258">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="D258">
         <v>13</v>
